--- a/data/retirement.xlsx
+++ b/data/retirement.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D536B609-B5A6-4D4A-A24B-202A3C3EC015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4E976A-D3F5-4C11-9BC9-FB30E1F91199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15225" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,18 @@
     <sheet name="Sheet25" sheetId="25" r:id="rId25"/>
     <sheet name="Sheet26" sheetId="26" r:id="rId26"/>
     <sheet name="Sheet27" sheetId="27" r:id="rId27"/>
+    <sheet name="Sheet28" sheetId="28" r:id="rId28"/>
+    <sheet name="Sheet29" sheetId="29" r:id="rId29"/>
+    <sheet name="Sheet30" sheetId="30" r:id="rId30"/>
+    <sheet name="Sheet31" sheetId="31" r:id="rId31"/>
+    <sheet name="Sheet32" sheetId="32" r:id="rId32"/>
+    <sheet name="Sheet33" sheetId="33" r:id="rId33"/>
+    <sheet name="Sheet34" sheetId="34" r:id="rId34"/>
+    <sheet name="Sheet35" sheetId="35" r:id="rId35"/>
+    <sheet name="Sheet36" sheetId="36" r:id="rId36"/>
+    <sheet name="Sheet37" sheetId="37" r:id="rId37"/>
+    <sheet name="Sheet38" sheetId="38" r:id="rId38"/>
+    <sheet name="Sheet39" sheetId="39" r:id="rId39"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,6 +56,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="70">
   <si>
     <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
@@ -149,6 +162,9 @@
     <t>Retirement Detail Total</t>
   </si>
   <si>
+    <t>["","3,36","1,817"]</t>
+  </si>
+  <si>
     <t>["","3,936","1,817"]</t>
   </si>
   <si>
@@ -173,6 +189,12 @@
     <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
   </si>
   <si>
+    <t>["60","11","2","61","1","0","62","2","0","64","1","4","65","2,094","1,073","66","40","5","67","4","0","68","6","3","70","23","42","71","7","4","72","1","0","73","6","1","75","3","6","77","0","2"]</t>
+  </si>
+  <si>
+    <t>["","2,199","1,142"]</t>
+  </si>
+  <si>
     <t>SAINSBURY'S SIPP</t>
   </si>
   <si>
@@ -248,14 +270,17 @@
     <t>ALLIANCE HEALTHCARE AND BOOTS RETIREMENT SAVINGS PLAN</t>
   </si>
   <si>
-    <t>["","3,36","1,817"]</t>
+    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
+  </si>
+  <si>
+    <t>1,906,054</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +301,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -411,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -441,6 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -463,11 +495,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1234,12 +1283,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1406,12 +1455,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1435,11 +1484,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1585,12 +1634,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1614,11 +1663,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1764,12 +1813,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1793,11 +1842,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1943,12 +1992,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1972,11 +2021,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2122,12 +2171,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2151,11 +2200,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2301,12 +2350,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2330,11 +2379,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2480,12 +2529,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2509,11 +2558,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2659,12 +2708,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2677,9 +2726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -2688,11 +2735,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2714,13 +2761,15 @@
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>45</v>
+      </c>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2728,13 +2777,15 @@
         <v>7</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>184</v>
+      </c>
       <c r="D4" s="7">
         <v>0.05</v>
       </c>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2742,13 +2793,15 @@
         <v>9</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>210</v>
+      </c>
       <c r="D5" s="7">
         <v>0.05</v>
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2756,13 +2809,15 @@
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>271</v>
+      </c>
       <c r="D6" s="7">
         <v>0.05</v>
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2770,13 +2825,15 @@
         <v>13</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>302</v>
+      </c>
       <c r="D7" s="7">
         <v>0.05</v>
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2784,31 +2841,39 @@
         <v>15</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>1021</v>
+      </c>
       <c r="D8" s="7">
         <v>0.05</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="C9">
+        <v>51</v>
+      </c>
       <c r="D9" s="7">
         <v>0.05</v>
       </c>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10" s="7">
         <v>0.05</v>
       </c>
@@ -2821,12 +2886,15 @@
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="C11">
+        <v>51</v>
+      </c>
       <c r="D11" s="7">
         <v>0.05</v>
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2838,12 +2906,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2867,11 +2935,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3017,12 +3085,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3046,11 +3114,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3073,7 +3141,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5">
         <v>0.05</v>
@@ -3089,7 +3157,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D4" s="7">
         <v>0.05</v>
@@ -3105,7 +3173,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D5" s="7">
         <v>0.05</v>
@@ -3202,12 +3270,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3232,12 +3300,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3389,12 +3457,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3418,11 +3486,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3568,12 +3636,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3597,11 +3665,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3693,10 +3761,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D8" s="7">
         <v>0.05</v>
@@ -3751,12 +3819,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3770,7 +3838,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3780,11 +3848,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3930,12 +3998,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3959,18 +4027,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -3985,7 +4053,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="18"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
@@ -3999,7 +4067,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="18"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="7">
         <v>0.05</v>
       </c>
@@ -4013,7 +4081,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="18"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="7">
         <v>0.05</v>
       </c>
@@ -4027,7 +4095,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="18"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="7">
         <v>0.05</v>
       </c>
@@ -4040,8 +4108,8 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="7">
         <v>0.05</v>
       </c>
@@ -4055,7 +4123,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="7">
         <v>0.05</v>
       </c>
@@ -4109,12 +4177,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4138,11 +4206,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4288,12 +4356,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4317,11 +4385,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4331,7 +4399,7 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -4348,7 +4416,7 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4361,7 +4429,7 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4374,7 +4442,7 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4387,7 +4455,7 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4400,7 +4468,7 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4413,7 +4481,7 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4424,7 +4492,7 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4435,7 +4503,7 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4446,7 +4514,7 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4454,22 +4522,22 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D6 D8:D11">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6 D8:D11">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4483,7 +4551,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4495,11 +4563,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4644,7 +4712,7 @@
     </row>
     <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4656,12 +4724,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4675,7 +4743,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4685,18 +4753,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -4835,15 +4903,43 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
@@ -4853,7 +4949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -4866,11 +4962,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -5085,10 +5181,10 @@
         <v>31</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="11" t="str">
@@ -5101,45 +5197,384 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11 D13:D14">
-    <cfRule type="cellIs" dxfId="63" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11 D13:D14">
-    <cfRule type="cellIs" dxfId="62" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="8" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="30.83984375" customWidth="1"/>
+    <col min="2" max="2" width="10.734375" customWidth="1"/>
+    <col min="3" max="3" width="10.05078125" customWidth="1"/>
+    <col min="4" max="4" width="10.3125" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>370</v>
+      </c>
+      <c r="C3" s="2">
+        <v>362</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1615</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1615</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2655</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2650</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>17758</v>
+      </c>
+      <c r="C7" s="2">
+        <v>17795</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="17">
+        <v>1866797</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>25043</v>
+      </c>
+      <c r="C9" s="2">
+        <v>25290</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>13763</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13876</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7856</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7955</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D8 D10:D11">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D8 D10:D11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
@@ -5160,11 +5595,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -5310,12 +5745,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5340,11 +5775,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -5490,12 +5925,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5519,11 +5954,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -5720,10 +6155,10 @@
     </row>
     <row r="13" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="11" t="str">
         <f>IF(B13=C13,"PASS","FAIL")</f>
@@ -5735,10 +6170,10 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="11" t="str">
         <f>IF(B14=C14,"PASS","FAIL")</f>
@@ -5750,42 +6185,42 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="51" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="8" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="50" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="7" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="49" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5809,11 +6244,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -5953,6 +6388,250 @@
     <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D8 D10:D11">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D8 D10:D11">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="33.89453125" customWidth="1"/>
+    <col min="2" max="3" width="33.9453125" customWidth="1"/>
+    <col min="4" max="4" width="10.26171875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2782</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2744</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>13497</v>
+      </c>
+      <c r="C4" s="2">
+        <v>13560</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>14907</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15039</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>17836</v>
+      </c>
+      <c r="C6" s="2">
+        <v>17956</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>178202</v>
+      </c>
+      <c r="C7" s="2">
+        <v>180437</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="17">
+        <v>227272</v>
+      </c>
+      <c r="C8" s="17">
+        <v>229788</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>3341</v>
+      </c>
+      <c r="C9">
+        <v>3391</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>2199</v>
+      </c>
+      <c r="C10">
+        <v>2212</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1142</v>
+      </c>
+      <c r="C11">
+        <v>1179</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5965,185 +6644,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
     <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="33.9453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6168,11 +6668,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -6318,12 +6818,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/retirement.xlsx
+++ b/data/retirement.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4E976A-D3F5-4C11-9BC9-FB30E1F91199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831874E4-9ABC-4917-AFF8-B96BBA897E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15225" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="23" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="69">
   <si>
     <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
-  </si>
-  <si>
-    <t>1,906,054</t>
   </si>
 </sst>
 </file>
@@ -5323,15 +5320,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="30.83984375" customWidth="1"/>
-    <col min="2" max="2" width="10.734375" customWidth="1"/>
-    <col min="3" max="3" width="10.05078125" customWidth="1"/>
+    <col min="2" max="2" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.3125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
   </cols>
@@ -5368,14 +5365,14 @@
         <v>370</v>
       </c>
       <c r="C3" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5386,7 +5383,7 @@
         <v>1615</v>
       </c>
       <c r="C4" s="2">
-        <v>1615</v>
+        <v>1602</v>
       </c>
       <c r="D4" s="7">
         <v>0.05</v>
@@ -5404,7 +5401,7 @@
         <v>2007</v>
       </c>
       <c r="C5" s="2">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D5" s="7">
         <v>0.05</v>
@@ -5422,7 +5419,7 @@
         <v>2655</v>
       </c>
       <c r="C6" s="2">
-        <v>2650</v>
+        <v>2636</v>
       </c>
       <c r="D6" s="7">
         <v>0.05</v>
@@ -5440,7 +5437,7 @@
         <v>17758</v>
       </c>
       <c r="C7" s="2">
-        <v>17795</v>
+        <v>17801</v>
       </c>
       <c r="D7" s="7">
         <v>0.05</v>
@@ -5457,15 +5454,15 @@
       <c r="B8" s="17">
         <v>1866797</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>69</v>
+      <c r="C8" s="17">
+        <v>1905529</v>
       </c>
       <c r="D8" s="7">
         <v>0.05</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5476,7 +5473,7 @@
         <v>25043</v>
       </c>
       <c r="C9" s="2">
-        <v>25290</v>
+        <v>25169</v>
       </c>
       <c r="D9" s="7">
         <v>0.05</v>
@@ -5494,7 +5491,7 @@
         <v>13763</v>
       </c>
       <c r="C10" s="2">
-        <v>13876</v>
+        <v>13809</v>
       </c>
       <c r="D10" s="7">
         <v>0.05</v>
@@ -5512,7 +5509,7 @@
         <v>7856</v>
       </c>
       <c r="C11" s="2">
-        <v>7955</v>
+        <v>7934</v>
       </c>
       <c r="D11" s="7">
         <v>0.05</v>
@@ -6412,7 +6409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/data/retirement.xlsx
+++ b/data/retirement.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831874E4-9ABC-4917-AFF8-B96BBA897E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1300535-49C6-4DEE-BABE-A8E57825DA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="23" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="73">
   <si>
     <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
@@ -189,10 +189,16 @@
     <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
   </si>
   <si>
-    <t>["60","11","2","61","1","0","62","2","0","64","1","4","65","2,094","1,073","66","40","5","67","4","0","68","6","3","70","23","42","71","7","4","72","1","0","73","6","1","75","3","6","77","0","2"]</t>
-  </si>
-  <si>
-    <t>["","2,199","1,142"]</t>
+    <t>["60","121","137","61","29","18","62","106","25","63","37","53","64","143","58","65","12,595","7,255","66","725","187","67","100","45","68","59","27","69","39","37","70","320","353","71","32","32","72","21","10"]</t>
+  </si>
+  <si>
+    <t>["60","172","179","61","40","23","62","150","42","63","54","64","64","43","24","65","12,431","7,244","66","917","250","67","121","69","68","78","35","69","23","13","70","418","460","71","36","42","72","25","15"]</t>
+  </si>
+  <si>
+    <t>["","14,426","8,310"]</t>
+  </si>
+  <si>
+    <t>["","14,624","8,560"]</t>
   </si>
   <si>
     <t>SAINSBURY'S SIPP</t>
@@ -271,6 +277,12 @@
   </si>
   <si>
     <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
+  </si>
+  <si>
+    <t>["60","116","128","61","23","10","62","101","22","63","35","49","64","23","11","65","12,680","7,268","66","675","173","67","98","42","68","53","24","69","17","6","70","309","346","71","31","29","72","20","7"]</t>
+  </si>
+  <si>
+    <t>["","14,274","8,181"]</t>
   </si>
 </sst>
 </file>
@@ -469,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1272,14 +1284,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83984375" customWidth="1"/>
-    <col min="2" max="3" width="31.20703125" customWidth="1"/>
-    <col min="4" max="4" width="19.3671875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1299,7 @@
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1302,7 +1314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1330,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1334,7 +1346,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1350,7 +1362,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1366,7 +1378,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1382,7 +1394,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -1398,7 +1410,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1413,7 +1425,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -1428,7 +1440,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1443,7 +1455,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -1474,20 +1486,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="42.5234375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1502,7 +1514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1516,7 +1528,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1530,7 +1542,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1544,7 +1556,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1558,7 +1570,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1572,7 +1584,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -1586,7 +1598,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1598,7 +1610,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -1610,7 +1622,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1622,7 +1634,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -1653,20 +1665,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="37.83984375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1681,7 +1693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1695,7 +1707,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1709,7 +1721,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1723,7 +1735,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1737,7 +1749,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1751,7 +1763,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -1765,7 +1777,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1777,7 +1789,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -1789,7 +1801,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1801,7 +1813,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -1832,20 +1844,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83984375" customWidth="1"/>
-    <col min="2" max="3" width="26.26171875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1860,7 +1872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1874,7 +1886,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1888,7 +1900,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1902,7 +1914,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1916,7 +1928,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1930,7 +1942,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -1944,7 +1956,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1956,7 +1968,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -1968,7 +1980,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1980,7 +1992,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -2011,20 +2023,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="56.47265625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2039,7 +2051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2053,7 +2065,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -2067,7 +2079,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2081,7 +2093,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2095,7 +2107,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2109,7 +2121,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -2123,7 +2135,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -2135,7 +2147,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -2147,7 +2159,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -2159,7 +2171,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -2190,20 +2202,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="28.5234375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2218,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2232,7 +2244,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -2246,7 +2258,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2260,7 +2272,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2274,7 +2286,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2288,7 +2300,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -2302,7 +2314,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -2314,7 +2326,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -2326,7 +2338,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -2338,7 +2350,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -2369,20 +2381,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="41.578125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2397,7 +2409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2411,7 +2423,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -2425,7 +2437,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2439,7 +2451,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2453,7 +2465,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2467,7 +2479,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -2481,7 +2493,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -2493,7 +2505,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -2505,7 +2517,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -2517,7 +2529,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -2548,20 +2560,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="25.05078125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2576,7 +2588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2590,7 +2602,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -2604,7 +2616,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2618,7 +2630,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2632,7 +2644,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2646,7 +2658,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -2660,7 +2672,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -2672,7 +2684,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -2684,7 +2696,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -2696,7 +2708,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -2725,20 +2737,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="29.62890625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2753,7 +2765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2769,7 +2781,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -2785,7 +2797,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2801,7 +2813,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2817,7 +2829,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2833,7 +2845,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -2849,7 +2861,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -2864,7 +2876,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -2879,7 +2891,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -2894,7 +2906,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -2925,20 +2937,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="27.9453125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2953,7 +2965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2967,7 +2979,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -2981,7 +2993,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2995,7 +3007,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3009,7 +3021,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3023,7 +3035,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -3037,7 +3049,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -3049,7 +3061,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -3061,7 +3073,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -3073,7 +3085,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -3104,20 +3116,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="3" width="27.5234375" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3132,13 +3144,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5">
         <v>0.05</v>
@@ -3148,13 +3160,13 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" s="7">
         <v>0.05</v>
@@ -3164,13 +3176,13 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7">
         <v>0.05</v>
@@ -3180,7 +3192,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3194,7 +3206,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3208,7 +3220,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -3222,7 +3234,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -3234,7 +3246,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -3246,7 +3258,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -3258,7 +3270,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -3289,11 +3301,11 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="2" width="29.3671875" customWidth="1"/>
-    <col min="3" max="3" width="70.15625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3304,7 +3316,7 @@
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3319,7 +3331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3335,7 +3347,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -3351,7 +3363,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -3367,7 +3379,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3381,7 +3393,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3395,7 +3407,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -3409,7 +3421,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -3421,7 +3433,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -3433,7 +3445,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -3445,7 +3457,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -3476,20 +3488,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="33.20703125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3504,7 +3516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3518,7 +3530,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -3532,7 +3544,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -3546,7 +3558,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3560,7 +3572,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3574,7 +3586,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -3588,7 +3600,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -3600,7 +3612,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -3612,7 +3624,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -3624,7 +3636,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -3655,20 +3667,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="19.05078125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3683,7 +3695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3697,7 +3709,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -3711,7 +3723,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -3725,7 +3737,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3739,7 +3751,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3753,15 +3765,15 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7">
         <v>0.05</v>
@@ -3771,7 +3783,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -3783,7 +3795,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -3795,7 +3807,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -3807,7 +3819,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -3838,20 +3850,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="29.47265625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3866,7 +3878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3880,7 +3892,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -3894,7 +3906,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -3908,7 +3920,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3922,7 +3934,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3936,7 +3948,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -3950,7 +3962,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -3962,7 +3974,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -3974,7 +3986,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -3986,7 +3998,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -4017,20 +4029,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="23.15625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -4045,7 +4057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4059,7 +4071,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4073,7 +4085,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4087,7 +4099,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4101,7 +4113,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -4115,7 +4127,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -4129,7 +4141,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -4141,7 +4153,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -4153,7 +4165,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -4165,7 +4177,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -4196,20 +4208,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="33.3125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -4224,7 +4236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4238,7 +4250,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4252,7 +4264,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4266,7 +4278,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4280,7 +4292,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -4294,7 +4306,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -4308,7 +4320,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -4320,7 +4332,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -4332,7 +4344,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -4344,7 +4356,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -4375,20 +4387,20 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83984375" customWidth="1"/>
-    <col min="2" max="3" width="22.1015625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -4403,7 +4415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4413,10 +4425,10 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4426,10 +4438,10 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4439,10 +4451,10 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4452,10 +4464,10 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -4465,10 +4477,10 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -4478,10 +4490,10 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -4489,10 +4501,10 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -4500,10 +4512,10 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -4511,7 +4523,7 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4551,22 +4563,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="40.41796875" customWidth="1"/>
-    <col min="4" max="4" width="10.3125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -4581,7 +4593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4595,7 +4607,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4609,7 +4621,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4623,7 +4635,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4637,7 +4649,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -4651,7 +4663,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -4665,7 +4677,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -4679,7 +4691,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -4693,7 +4705,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -4707,9 +4719,9 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4743,20 +4755,20 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="3" width="52.3125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="3" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="22" t="s">
         <v>1</v>
@@ -4771,7 +4783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4785,7 +4797,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4799,7 +4811,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4813,7 +4825,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4827,7 +4839,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -4841,7 +4853,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -4855,7 +4867,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -4867,7 +4879,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -4879,7 +4891,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -4891,7 +4903,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -4922,7 +4934,7 @@
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -4935,7 +4947,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -4950,22 +4962,22 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83984375" customWidth="1"/>
-    <col min="2" max="2" width="62.68359375" customWidth="1"/>
-    <col min="3" max="3" width="61.89453125" customWidth="1"/>
-    <col min="4" max="4" width="10.26171875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -4980,7 +4992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4998,7 +5010,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -5016,7 +5028,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5034,7 +5046,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5052,7 +5064,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -5070,7 +5082,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -5088,7 +5100,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -5106,7 +5118,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -5124,7 +5136,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -5142,7 +5154,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
@@ -5158,7 +5170,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>30</v>
       </c>
@@ -5173,7 +5185,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -5244,7 +5256,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -5257,7 +5269,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -5270,7 +5282,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -5283,7 +5295,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -5296,7 +5308,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -5309,7 +5321,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -5318,31 +5330,31 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83984375" customWidth="1"/>
-    <col min="2" max="2" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3125" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -5357,51 +5369,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>370</v>
-      </c>
-      <c r="C3" s="2">
-        <v>347</v>
+      <c r="B3">
+        <v>322</v>
+      </c>
+      <c r="C3">
+        <v>297</v>
       </c>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
       <c r="E3" s="6" t="str">
-        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>1615</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1602</v>
+      <c r="B4">
+        <v>1592</v>
+      </c>
+      <c r="C4">
+        <v>1572</v>
       </c>
       <c r="D4" s="7">
         <v>0.05</v>
       </c>
       <c r="E4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E4:E11" si="0">IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
-        <v>2007</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1999</v>
+      <c r="B5">
+        <v>1992</v>
+      </c>
+      <c r="C5">
+        <v>1955</v>
       </c>
       <c r="D5" s="7">
         <v>0.05</v>
@@ -5411,15 +5423,15 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
-        <v>2655</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2636</v>
+      <c r="B6">
+        <v>2621</v>
+      </c>
+      <c r="C6">
+        <v>2578</v>
       </c>
       <c r="D6" s="7">
         <v>0.05</v>
@@ -5429,15 +5441,15 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2">
-        <v>17758</v>
-      </c>
-      <c r="C7" s="2">
-        <v>17801</v>
+      <c r="B7">
+        <v>17519</v>
+      </c>
+      <c r="C7">
+        <v>17138</v>
       </c>
       <c r="D7" s="7">
         <v>0.05</v>
@@ -5447,33 +5459,31 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="17">
-        <v>1866797</v>
-      </c>
-      <c r="C8" s="17">
-        <v>1905529</v>
-      </c>
+        <v>2039845</v>
+      </c>
+      <c r="C8" s="17"/>
       <c r="D8" s="7">
         <v>0.05</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2">
-        <v>25043</v>
-      </c>
-      <c r="C9" s="2">
-        <v>25169</v>
+      <c r="B9">
+        <v>26764</v>
+      </c>
+      <c r="C9">
+        <v>27236</v>
       </c>
       <c r="D9" s="7">
         <v>0.05</v>
@@ -5483,15 +5493,15 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2">
-        <v>13763</v>
-      </c>
-      <c r="C10" s="2">
-        <v>13809</v>
+      <c r="B10">
+        <v>14426</v>
+      </c>
+      <c r="C10">
+        <v>14624</v>
       </c>
       <c r="D10" s="7">
         <v>0.05</v>
@@ -5501,15 +5511,15 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2">
-        <v>7856</v>
-      </c>
-      <c r="C11" s="2">
-        <v>7934</v>
+      <c r="B11">
+        <v>8310</v>
+      </c>
+      <c r="C11">
+        <v>8560</v>
       </c>
       <c r="D11" s="7">
         <v>0.05</v>
@@ -5517,6 +5527,30 @@
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5544,7 +5578,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -5557,7 +5591,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -5570,7 +5604,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -5585,20 +5619,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.734375" customWidth="1"/>
-    <col min="2" max="3" width="37.3125" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="3" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -5613,7 +5647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -5627,7 +5661,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -5641,7 +5675,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5655,7 +5689,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5669,7 +5703,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -5683,7 +5717,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -5697,7 +5731,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -5709,7 +5743,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -5721,7 +5755,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -5733,7 +5767,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -5764,21 +5798,21 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="2" width="14.26171875" customWidth="1"/>
-    <col min="3" max="3" width="22.5234375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -5793,7 +5827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -5807,7 +5841,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -5821,7 +5855,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5835,7 +5869,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5849,7 +5883,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -5863,7 +5897,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -5877,7 +5911,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -5889,7 +5923,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -5901,7 +5935,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -5913,7 +5947,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -5944,20 +5978,20 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5234375" customWidth="1"/>
-    <col min="2" max="3" width="35.62890625" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="3" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -5972,7 +6006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -5990,7 +6024,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -6008,7 +6042,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -6026,7 +6060,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6044,7 +6078,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -6062,7 +6096,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -6080,7 +6114,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -6098,7 +6132,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -6116,7 +6150,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -6134,7 +6168,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
@@ -6162,7 +6196,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -6234,20 +6268,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="32.5234375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -6262,7 +6296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -6276,7 +6310,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -6290,7 +6324,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -6304,7 +6338,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6318,7 +6352,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -6332,7 +6366,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -6346,7 +6380,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -6358,7 +6392,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -6370,7 +6404,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -6382,7 +6416,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
@@ -6409,25 +6443,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.89453125" customWidth="1"/>
-    <col min="2" max="3" width="33.9453125" customWidth="1"/>
-    <col min="4" max="4" width="10.26171875" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -6442,51 +6476,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>2782</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2744</v>
+      <c r="B3">
+        <v>2398</v>
+      </c>
+      <c r="C3">
+        <v>2177</v>
       </c>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
       <c r="E3" s="6" t="str">
-        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>13497</v>
-      </c>
-      <c r="C4" s="2">
-        <v>13560</v>
+      <c r="B4">
+        <v>13583</v>
+      </c>
+      <c r="C4">
+        <v>13586</v>
       </c>
       <c r="D4" s="7">
         <v>0.05</v>
       </c>
       <c r="E4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E4:E11" si="0">IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
-        <v>14907</v>
-      </c>
-      <c r="C5" s="2">
-        <v>15039</v>
+      <c r="B5">
+        <v>15247</v>
+      </c>
+      <c r="C5">
+        <v>15310</v>
       </c>
       <c r="D5" s="7">
         <v>0.05</v>
@@ -6496,15 +6530,15 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
-        <v>17836</v>
-      </c>
-      <c r="C6" s="2">
-        <v>17956</v>
+      <c r="B6">
+        <v>17957</v>
+      </c>
+      <c r="C6">
+        <v>17910</v>
       </c>
       <c r="D6" s="7">
         <v>0.05</v>
@@ -6514,15 +6548,15 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2">
-        <v>178202</v>
-      </c>
-      <c r="C7" s="2">
-        <v>180437</v>
+      <c r="B7">
+        <v>182191</v>
+      </c>
+      <c r="C7">
+        <v>182178</v>
       </c>
       <c r="D7" s="7">
         <v>0.05</v>
@@ -6532,33 +6566,31 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="17">
-        <v>227272</v>
-      </c>
-      <c r="C8" s="17">
-        <v>229788</v>
-      </c>
+        <v>231201</v>
+      </c>
+      <c r="C8" s="17"/>
       <c r="D8" s="7">
         <v>0.05</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3341</v>
+        <v>26764</v>
       </c>
       <c r="C9">
-        <v>3391</v>
+        <v>27236</v>
       </c>
       <c r="D9" s="7">
         <v>0.05</v>
@@ -6568,15 +6600,15 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B10">
-        <v>2199</v>
+        <v>14426</v>
       </c>
       <c r="C10">
-        <v>2212</v>
+        <v>14624</v>
       </c>
       <c r="D10" s="7">
         <v>0.05</v>
@@ -6586,15 +6618,15 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B11">
-        <v>1142</v>
+        <v>8310</v>
       </c>
       <c r="C11">
-        <v>1179</v>
+        <v>8560</v>
       </c>
       <c r="D11" s="7">
         <v>0.05</v>
@@ -6604,7 +6636,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -6614,20 +6646,20 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -6657,21 +6689,21 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="14.7890625" customWidth="1"/>
-    <col min="4" max="4" width="5.7890625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -6686,7 +6718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -6700,7 +6732,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -6714,7 +6746,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -6728,7 +6760,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6742,7 +6774,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -6756,7 +6788,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -6770,7 +6802,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -6782,7 +6814,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -6794,7 +6826,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -6806,7 +6838,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>

--- a/data/retirement.xlsx
+++ b/data/retirement.xlsx
@@ -3,47 +3,47 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1300535-49C6-4DEE-BABE-A8E57825DA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786CD5CC-981D-4B4D-A531-D3D0BF9ED876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
-    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
-    <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
-    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
-    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
-    <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
-    <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
-    <sheet name="Sheet23" sheetId="23" r:id="rId23"/>
-    <sheet name="Sheet24" sheetId="24" r:id="rId24"/>
-    <sheet name="Sheet25" sheetId="25" r:id="rId25"/>
-    <sheet name="Sheet26" sheetId="26" r:id="rId26"/>
-    <sheet name="Sheet27" sheetId="27" r:id="rId27"/>
-    <sheet name="Sheet28" sheetId="28" r:id="rId28"/>
-    <sheet name="Sheet29" sheetId="29" r:id="rId29"/>
-    <sheet name="Sheet30" sheetId="30" r:id="rId30"/>
-    <sheet name="Sheet31" sheetId="31" r:id="rId31"/>
-    <sheet name="Sheet32" sheetId="32" r:id="rId32"/>
-    <sheet name="Sheet33" sheetId="33" r:id="rId33"/>
-    <sheet name="Sheet34" sheetId="34" r:id="rId34"/>
-    <sheet name="Sheet35" sheetId="35" r:id="rId35"/>
-    <sheet name="Sheet36" sheetId="36" r:id="rId36"/>
+    <sheet name="Sheet1" sheetId="36" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet50" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet51" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId12"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId13"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId14"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId15"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId16"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId17"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId18"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId19"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId20"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId21"/>
+    <sheet name="Sheet21" sheetId="21" r:id="rId22"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId23"/>
+    <sheet name="Sheet23" sheetId="23" r:id="rId24"/>
+    <sheet name="Sheet24" sheetId="24" r:id="rId25"/>
+    <sheet name="Sheet25" sheetId="25" r:id="rId26"/>
+    <sheet name="Sheet26" sheetId="26" r:id="rId27"/>
+    <sheet name="Sheet27" sheetId="27" r:id="rId28"/>
+    <sheet name="Sheet28" sheetId="28" r:id="rId29"/>
+    <sheet name="Sheet29" sheetId="29" r:id="rId30"/>
+    <sheet name="Sheet30" sheetId="30" r:id="rId31"/>
+    <sheet name="Sheet31" sheetId="31" r:id="rId32"/>
+    <sheet name="Sheet32" sheetId="32" r:id="rId33"/>
+    <sheet name="Sheet33" sheetId="33" r:id="rId34"/>
+    <sheet name="Sheet34" sheetId="34" r:id="rId35"/>
+    <sheet name="Sheet35" sheetId="35" r:id="rId36"/>
     <sheet name="Sheet37" sheetId="37" r:id="rId37"/>
     <sheet name="Sheet38" sheetId="38" r:id="rId38"/>
     <sheet name="Sheet39" sheetId="39" r:id="rId39"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="69">
   <si>
     <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
@@ -189,16 +189,10 @@
     <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
   </si>
   <si>
-    <t>["60","121","137","61","29","18","62","106","25","63","37","53","64","143","58","65","12,595","7,255","66","725","187","67","100","45","68","59","27","69","39","37","70","320","353","71","32","32","72","21","10"]</t>
+    <t>["60","188","202","61","50","25","62","161","47","63","57","68","64","87","38","65","12,366","7,257","66","988","264","67","132","80","68","83","41","69","30","22","70","439","493","71","39","44","72","25","15"]</t>
   </si>
   <si>
-    <t>["60","172","179","61","40","23","62","150","42","63","54","64","64","43","24","65","12,431","7,244","66","917","250","67","121","69","68","78","35","69","23","13","70","418","460","71","36","42","72","25","15"]</t>
-  </si>
-  <si>
-    <t>["","14,426","8,310"]</t>
-  </si>
-  <si>
-    <t>["","14,624","8,560"]</t>
+    <t>["","14,769","8,703"]</t>
   </si>
   <si>
     <t>SAINSBURY'S SIPP</t>
@@ -278,12 +272,6 @@
   <si>
     <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
   </si>
-  <si>
-    <t>["60","116","128","61","23","10","62","101","22","63","35","49","64","23","11","65","12,680","7,268","66","675","173","67","98","42","68","53","24","69","17","6","70","309","346","71","31","29","72","20","7"]</t>
-  </si>
-  <si>
-    <t>["","14,274","8,181"]</t>
-  </si>
 </sst>
 </file>
 
@@ -332,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -447,6 +435,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -481,7 +484,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -489,10 +491,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -504,8 +509,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1277,7 +1282,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>322</v>
+      </c>
+      <c r="C3">
+        <v>276</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1592</v>
+      </c>
+      <c r="C4">
+        <v>1538</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f t="shared" ref="E4:E11" si="0">IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1992</v>
+      </c>
+      <c r="C5">
+        <v>1917</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2621</v>
+      </c>
+      <c r="C6">
+        <v>2499</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>17519</v>
+      </c>
+      <c r="C7">
+        <v>16620</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="28">
+        <v>22847</v>
+      </c>
+      <c r="C8" s="28">
+        <v>23350</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>26764</v>
+      </c>
+      <c r="C9">
+        <v>27553</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>14426</v>
+      </c>
+      <c r="C10">
+        <v>14769</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>8310</v>
+      </c>
+      <c r="C11">
+        <v>8703</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D8 D10:D11">
+    <cfRule type="cellIs" dxfId="69" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D8 D10:D11">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1286,20 +1528,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1319,15 +1560,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1335,15 +1574,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="7">
         <v>0.05</v>
       </c>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1351,15 +1588,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="7">
         <v>0.05</v>
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1367,31 +1602,27 @@
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="7">
         <v>0.05</v>
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="7">
         <v>0.05</v>
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1399,60 +1630,49 @@
         <v>15</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="7">
         <v>0.05</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
       <c r="D9" s="7">
         <v>0.05</v>
       </c>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
       <c r="D10" s="7">
         <v>0.05</v>
       </c>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
       <c r="D11" s="7">
         <v>0.05</v>
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1461,15 +1681,15 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="69" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1478,7 +1698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1493,11 +1713,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1643,12 +1863,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1657,7 +1877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1672,11 +1892,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1822,12 +2042,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1836,7 +2056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1851,11 +2071,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2001,12 +2221,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2015,7 +2235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2030,11 +2250,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2180,12 +2400,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2194,7 +2414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2209,11 +2429,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2359,12 +2579,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2373,7 +2593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2388,11 +2608,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2538,12 +2758,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2552,7 +2772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2567,11 +2787,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2717,12 +2937,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2731,7 +2951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2744,11 +2964,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2915,12 +3135,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2929,7 +3149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2944,11 +3164,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3094,12 +3314,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3108,7 +3328,242 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2109</v>
+      </c>
+      <c r="C3">
+        <v>2109</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>13602</v>
+      </c>
+      <c r="C4">
+        <v>13602</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f t="shared" ref="E4:E11" si="0">IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>15381</v>
+      </c>
+      <c r="C5">
+        <v>15381</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>17936</v>
+      </c>
+      <c r="C6">
+        <v>17936</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>182886</v>
+      </c>
+      <c r="C7">
+        <v>182886</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="28">
+        <v>231795</v>
+      </c>
+      <c r="C8" s="28">
+        <v>231531</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>27553</v>
+      </c>
+      <c r="C9">
+        <v>27553</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>14769</v>
+      </c>
+      <c r="C10">
+        <v>14769</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>8703</v>
+      </c>
+      <c r="C11">
+        <v>8703</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D8 D10:D11">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D8 D10:D11">
+    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -3123,11 +3578,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3150,7 +3605,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5">
         <v>0.05</v>
@@ -3166,7 +3621,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="7">
         <v>0.05</v>
@@ -3182,7 +3637,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="7">
         <v>0.05</v>
@@ -3279,12 +3734,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3293,194 +3748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="70.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -3495,11 +3763,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3645,12 +3913,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3659,7 +3927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -3674,11 +3942,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3770,10 +4038,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="7">
         <v>0.05</v>
@@ -3828,12 +4096,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3842,7 +4110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -3858,7 +4126,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -4007,12 +4275,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4021,7 +4289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -4036,18 +4304,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -4062,7 +4330,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="19"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
@@ -4076,7 +4344,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="19"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="7">
         <v>0.05</v>
       </c>
@@ -4090,7 +4358,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="19"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="7">
         <v>0.05</v>
       </c>
@@ -4104,7 +4372,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="19"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="7">
         <v>0.05</v>
       </c>
@@ -4117,8 +4385,8 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="7">
         <v>0.05</v>
       </c>
@@ -4132,7 +4400,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="19"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="7">
         <v>0.05</v>
       </c>
@@ -4186,12 +4454,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4200,7 +4468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -4215,11 +4483,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4365,12 +4633,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4379,7 +4647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -4394,11 +4662,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4408,7 +4676,7 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -4425,7 +4693,7 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4438,7 +4706,7 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4451,7 +4719,7 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4464,7 +4732,7 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4477,7 +4745,7 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4490,7 +4758,7 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4501,7 +4769,7 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4512,7 +4780,7 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4523,7 +4791,7 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4531,22 +4799,22 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D6 D8:D11">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6 D8:D11">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4555,7 +4823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -4573,9 +4841,9 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="24"/>
+        <v>65</v>
+      </c>
+      <c r="C1" s="23"/>
       <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4721,7 +4989,7 @@
     </row>
     <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4733,12 +5001,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4747,7 +5015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -4762,18 +5030,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -4912,12 +5180,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4926,7 +5194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4941,7 +5209,209 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D8 D10:D11">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D8 D10:D11">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4954,303 +5424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>360</v>
-      </c>
-      <c r="C3" s="2">
-        <v>367</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>20655</v>
-      </c>
-      <c r="C4" s="2">
-        <v>20655</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>26523</v>
-      </c>
-      <c r="C5" s="2">
-        <v>26523</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>31691</v>
-      </c>
-      <c r="C6" s="2">
-        <v>31691</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>343196</v>
-      </c>
-      <c r="C7" s="2">
-        <v>343196</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="2">
-        <v>422436</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>5753</v>
-      </c>
-      <c r="C9">
-        <v>5753</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>3936</v>
-      </c>
-      <c r="C10">
-        <v>3936</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>1817</v>
-      </c>
-      <c r="C11">
-        <v>1817</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="11" t="str">
-        <f>IF(B12=C12,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11" t="str">
-        <f>IF(B13=C13,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="11" t="str">
-        <f>IF(B14=C14,"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D8 D10:D11 D13:D14">
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8 D10:D11 D13:D14">
-    <cfRule type="cellIs" dxfId="64" priority="9" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="63" priority="8" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5263,7 +5437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5276,7 +5450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5289,7 +5463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5302,7 +5476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5315,7 +5489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5323,250 +5497,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>322</v>
-      </c>
-      <c r="C3">
-        <v>297</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1592</v>
-      </c>
-      <c r="C4">
-        <v>1572</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f t="shared" ref="E4:E11" si="0">IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>1992</v>
-      </c>
-      <c r="C5">
-        <v>1955</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>2621</v>
-      </c>
-      <c r="C6">
-        <v>2578</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>17519</v>
-      </c>
-      <c r="C7">
-        <v>17138</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="17">
-        <v>2039845</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>26764</v>
-      </c>
-      <c r="C9">
-        <v>27236</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>14426</v>
-      </c>
-      <c r="C10">
-        <v>14624</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>8310</v>
-      </c>
-      <c r="C11">
-        <v>8560</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
@@ -5612,6 +5542,489 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D8 D10:D11">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D8 D10:D11">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>360</v>
+      </c>
+      <c r="C3" s="2">
+        <v>367</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20655</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20655</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>26523</v>
+      </c>
+      <c r="C5" s="2">
+        <v>26523</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>31691</v>
+      </c>
+      <c r="C6" s="2">
+        <v>31691</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>343196</v>
+      </c>
+      <c r="C7" s="2">
+        <v>343196</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="2">
+        <v>422436</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>5753</v>
+      </c>
+      <c r="C9">
+        <v>5753</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>3936</v>
+      </c>
+      <c r="C10">
+        <v>3936</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1817</v>
+      </c>
+      <c r="C11">
+        <v>1817</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="11" t="str">
+        <f>IF(B12=C12,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11" t="str">
+        <f>IF(B13=C13,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="11" t="str">
+        <f>IF(B14=C14,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D8 D10:D11 D13:D14">
+    <cfRule type="cellIs" dxfId="61" priority="10" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D8 D10:D11 D13:D14">
+    <cfRule type="cellIs" dxfId="60" priority="9" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -5626,11 +6039,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -5776,12 +6189,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5790,7 +6203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -5806,11 +6219,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -5956,12 +6369,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5970,7 +6383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -5985,11 +6398,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -6216,42 +6629,42 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="53" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="52" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="50" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6260,7 +6673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -6275,433 +6688,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2398</v>
-      </c>
-      <c r="C3">
-        <v>2177</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>13583</v>
-      </c>
-      <c r="C4">
-        <v>13586</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f t="shared" ref="E4:E11" si="0">IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>15247</v>
-      </c>
-      <c r="C5">
-        <v>15310</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>17957</v>
-      </c>
-      <c r="C6">
-        <v>17910</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>182191</v>
-      </c>
-      <c r="C7">
-        <v>182178</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="17">
-        <v>231201</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>26764</v>
-      </c>
-      <c r="C9">
-        <v>27236</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>14426</v>
-      </c>
-      <c r="C10">
-        <v>14624</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>8310</v>
-      </c>
-      <c r="C11">
-        <v>8560</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
